--- a/自己论文/对比实验数据.xlsx
+++ b/自己论文/对比实验数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27948" windowHeight="12288"/>
+    <workbookView windowWidth="22188" windowHeight="9047"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>模型\数据集</t>
   </si>
@@ -90,16 +90,33 @@
   <si>
     <t>GROVER</t>
   </si>
+  <si>
+    <t>smiles-bert</t>
+  </si>
+  <si>
+    <t>Mol2Vec</t>
+  </si>
+  <si>
+    <t>MoleculeSTM</t>
+  </si>
+  <si>
+    <t>MoMu</t>
+  </si>
+  <si>
+    <t>KV-PLM</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -269,7 +286,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,6 +338,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,7 +675,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
@@ -664,16 +699,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="7">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8">
@@ -682,89 +717,89 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="35" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="37" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -777,62 +812,56 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1145,12 +1174,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J89"/>
+  <dimension ref="A1:J122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O31" sqref="O31"/>
+      <selection pane="bottomLeft" activeCell="M63" sqref="M63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1204,1275 +1233,1795 @@
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>0.863</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>0.908</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>0.933</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>0.807</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>0.579</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>0.605</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3">
         <v>0.863</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>0.908</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>0.933</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>0.807</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3">
         <v>0.605</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="4">
         <v>0.876</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="4">
         <v>0.912</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="4">
         <v>0.855</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <v>0.769</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4">
         <v>0.632</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="5">
         <v>0.75</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="5">
         <v>0.847</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="5">
         <v>0.717</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="5">
         <v>0.767</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="5">
         <v>0.679</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="5">
         <v>0.545</v>
       </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5">
         <v>0.75</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="5">
         <v>0.847</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="5">
         <v>0.717</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="5">
         <v>0.767</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8">
+      <c r="F18" s="5"/>
+      <c r="G18" s="5">
         <v>0.545</v>
       </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="7">
         <v>0.845</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="7">
         <v>0.894</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="7">
         <v>0.869</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="7">
         <v>0.811</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="7">
         <v>0.703</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="7">
         <v>0.591</v>
       </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7">
+        <v>0.795</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.792</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0.694</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0.806</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7">
+        <v>0.591</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1.619</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0.885</v>
+      </c>
+      <c r="J25" s="7"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32" s="8">
         <v>0.815</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="8">
         <v>0.913</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="8">
         <v>0.879</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="8">
         <v>0.808</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F32" s="8">
         <v>0.691</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G32" s="8">
         <v>0.595</v>
       </c>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="15">
+      <c r="B40" s="9">
         <v>0.852</v>
       </c>
-      <c r="C40" s="15">
+      <c r="C40" s="9">
         <v>0.919</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D40" s="9">
         <v>0.897</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E40" s="9">
         <v>0.826</v>
       </c>
-      <c r="F40" s="15">
+      <c r="F40" s="9">
         <v>0.718</v>
       </c>
-      <c r="G40" s="15">
+      <c r="G40" s="9">
         <v>0.632</v>
       </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="15"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="15"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="15"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B48" s="17">
+      <c r="B48" s="10">
         <v>0.869</v>
       </c>
-      <c r="C48" s="17">
+      <c r="C48" s="10">
         <v>0.929</v>
       </c>
-      <c r="D48" s="17">
+      <c r="D48" s="10">
         <v>0.922</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E48" s="10">
         <v>0.81</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F48" s="10">
         <v>0.709</v>
       </c>
-      <c r="G48" s="17">
+      <c r="G48" s="10">
         <v>0.617</v>
       </c>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="17"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="10">
+        <v>0.873</v>
+      </c>
+      <c r="C49" s="10">
+        <v>0.927</v>
+      </c>
+      <c r="D49" s="10">
+        <v>0.901</v>
+      </c>
+      <c r="E49" s="10">
+        <v>0.837</v>
+      </c>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10">
+        <v>0.639</v>
+      </c>
+      <c r="H49" s="10">
+        <v>1.57</v>
+      </c>
+      <c r="I49" s="10">
+        <v>0.798</v>
+      </c>
+      <c r="J49" s="10"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="17"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="17"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="17"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="17"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="17"/>
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="18" t="s">
+      <c r="A56" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B56" s="19">
+      <c r="B56" s="11">
         <v>0.812</v>
       </c>
-      <c r="C56" s="19">
+      <c r="C56" s="11">
         <v>0.724</v>
       </c>
-      <c r="D56" s="19">
+      <c r="D56" s="11">
         <v>0.791</v>
       </c>
-      <c r="E56" s="19">
+      <c r="E56" s="11">
         <v>0.759</v>
       </c>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19">
+      <c r="F56" s="11"/>
+      <c r="G56" s="11">
         <v>0.639</v>
       </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="19"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="19"/>
-      <c r="B57" s="19">
+      <c r="A57" s="11"/>
+      <c r="B57" s="11">
         <v>0.812</v>
       </c>
-      <c r="C57" s="19">
+      <c r="C57" s="11">
         <v>0.724</v>
       </c>
-      <c r="D57" s="19">
+      <c r="D57" s="11">
         <v>0.791</v>
       </c>
-      <c r="E57" s="19">
+      <c r="E57" s="11">
         <v>0.795</v>
       </c>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19">
+      <c r="F57" s="11"/>
+      <c r="G57" s="11">
         <v>0.639</v>
       </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="19"/>
-      <c r="B58" s="19">
+      <c r="A58" s="11"/>
+      <c r="B58" s="11">
         <v>0.81</v>
       </c>
-      <c r="C58" s="19">
+      <c r="C58" s="11">
         <v>0.74</v>
       </c>
-      <c r="D58" s="19">
+      <c r="D58" s="11">
         <v>0.75</v>
       </c>
-      <c r="E58" s="19">
+      <c r="E58" s="11">
         <v>0.7</v>
       </c>
-      <c r="F58" s="19">
+      <c r="F58" s="11">
         <v>0.6</v>
       </c>
-      <c r="G58" s="19">
+      <c r="G58" s="11">
         <v>0.61</v>
       </c>
-      <c r="H58" s="19">
+      <c r="H58" s="11">
         <v>2.55</v>
       </c>
-      <c r="I58" s="19">
+      <c r="I58" s="11">
         <v>1.32</v>
       </c>
-      <c r="J58" s="19">
+      <c r="J58" s="11">
         <v>0.76</v>
       </c>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="19"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
+      <c r="A59" s="11"/>
+      <c r="B59" s="11">
+        <v>0.812</v>
+      </c>
+      <c r="C59" s="11">
+        <v>0.724</v>
+      </c>
+      <c r="D59" s="11">
+        <v>0.775</v>
+      </c>
+      <c r="E59" s="11">
+        <v>0.744</v>
+      </c>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11">
+        <v>0.639</v>
+      </c>
+      <c r="H59" s="11">
+        <v>1.893</v>
+      </c>
+      <c r="I59" s="11">
+        <v>1.029</v>
+      </c>
+      <c r="J59" s="11"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="19"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="19"/>
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="19"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
+      <c r="A61" s="11"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="19"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
+      <c r="A62" s="11"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="19"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="19"/>
+      <c r="A63" s="11"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="20" t="s">
+      <c r="A64" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B64" s="21">
+      <c r="B64" s="12">
         <v>0.788</v>
       </c>
-      <c r="C64" s="21">
+      <c r="C64" s="12">
         <v>0.738</v>
       </c>
-      <c r="D64" s="21">
+      <c r="D64" s="12">
         <v>0.867</v>
       </c>
-      <c r="E64" s="21">
+      <c r="E64" s="12">
         <v>0.747</v>
       </c>
-      <c r="F64" s="21"/>
-      <c r="G64" s="21">
+      <c r="F64" s="12"/>
+      <c r="G64" s="12">
         <v>0.669</v>
       </c>
-      <c r="H64" s="21"/>
-      <c r="I64" s="21"/>
-      <c r="J64" s="21"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="21"/>
-      <c r="B65" s="21">
+      <c r="A65" s="12"/>
+      <c r="B65" s="12">
         <v>0.75</v>
       </c>
-      <c r="C65" s="21">
+      <c r="C65" s="12">
         <v>0.65</v>
       </c>
-      <c r="D65" s="21">
+      <c r="D65" s="12">
         <v>0.72</v>
       </c>
-      <c r="E65" s="21">
+      <c r="E65" s="12">
         <v>0.75</v>
       </c>
-      <c r="F65" s="21">
+      <c r="F65" s="12">
         <v>0.74</v>
       </c>
-      <c r="G65" s="21">
+      <c r="G65" s="12">
         <v>0.62</v>
       </c>
-      <c r="H65" s="21">
+      <c r="H65" s="12">
         <v>2.48</v>
       </c>
-      <c r="I65" s="21">
+      <c r="I65" s="12">
         <v>1.46</v>
       </c>
-      <c r="J65" s="21">
+      <c r="J65" s="12">
         <v>0.82</v>
       </c>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="21"/>
-      <c r="B66" s="21">
+      <c r="A66" s="12"/>
+      <c r="B66" s="12">
         <v>0.7114</v>
       </c>
-      <c r="C66" s="21">
+      <c r="C66" s="12">
         <v>0.6779</v>
       </c>
-      <c r="D66" s="21">
+      <c r="D66" s="12">
         <v>0.8422</v>
       </c>
-      <c r="E66" s="21">
+      <c r="E66" s="12">
         <v>0.7555</v>
       </c>
-      <c r="F66" s="21">
+      <c r="F66" s="12">
         <v>0.6458</v>
       </c>
-      <c r="G66" s="21">
+      <c r="G66" s="12">
         <v>0.5866</v>
       </c>
-      <c r="H66" s="21"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="21"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="21"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="21"/>
-      <c r="H67" s="21"/>
-      <c r="I67" s="21"/>
-      <c r="J67" s="21"/>
+      <c r="A67" s="12"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="21"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="21"/>
-      <c r="H68" s="21"/>
-      <c r="I68" s="21"/>
-      <c r="J68" s="21"/>
+      <c r="A68" s="12"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="21"/>
-      <c r="B69" s="21"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="21"/>
-      <c r="H69" s="21"/>
-      <c r="I69" s="21"/>
-      <c r="J69" s="21"/>
+      <c r="A69" s="12"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="21"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="21"/>
-      <c r="H70" s="21"/>
-      <c r="I70" s="21"/>
-      <c r="J70" s="21"/>
+      <c r="A70" s="12"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="21"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="21"/>
-      <c r="H71" s="21"/>
-      <c r="I71" s="21"/>
-      <c r="J71" s="21"/>
+      <c r="A71" s="12"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="21"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="21"/>
-      <c r="H72" s="21"/>
-      <c r="I72" s="21"/>
-      <c r="J72" s="21"/>
+      <c r="A72" s="12"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B73" s="11">
+      <c r="B73" s="7">
         <v>0.79</v>
       </c>
-      <c r="C73" s="11">
+      <c r="C73" s="7">
         <v>0.7</v>
       </c>
-      <c r="D73" s="11">
+      <c r="D73" s="7">
         <v>0.69</v>
       </c>
-      <c r="E73" s="11">
+      <c r="E73" s="7">
         <v>0.69</v>
       </c>
-      <c r="F73" s="11">
+      <c r="F73" s="7">
         <v>0.58</v>
       </c>
-      <c r="G73" s="11">
+      <c r="G73" s="7">
         <v>0.57</v>
       </c>
-      <c r="H73" s="11">
+      <c r="H73" s="7">
         <v>3.32</v>
       </c>
-      <c r="I73" s="11">
+      <c r="I73" s="7">
         <v>1.37</v>
       </c>
-      <c r="J73" s="11">
+      <c r="J73" s="7">
         <v>0.78</v>
       </c>
     </row>
     <row r="74" spans="1:10">
-      <c r="A74" s="11"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="11"/>
-      <c r="I74" s="11"/>
-      <c r="J74" s="11"/>
+      <c r="A74" s="7"/>
+      <c r="B74" s="7">
+        <v>0.894</v>
+      </c>
+      <c r="C74" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="D74" s="7">
+        <v>0.944</v>
+      </c>
+      <c r="E74" s="7">
+        <v>0.831</v>
+      </c>
+      <c r="F74" s="7">
+        <v>0.737</v>
+      </c>
+      <c r="G74" s="7">
+        <v>0.658</v>
+      </c>
+      <c r="H74" s="7">
+        <v>1.544</v>
+      </c>
+      <c r="I74" s="7">
+        <v>0.831</v>
+      </c>
+      <c r="J74" s="13">
+        <v>0.56</v>
+      </c>
     </row>
     <row r="75" spans="1:10">
-      <c r="A75" s="11"/>
-      <c r="B75" s="11"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="11"/>
-      <c r="I75" s="11"/>
-      <c r="J75" s="11"/>
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
     </row>
     <row r="76" spans="1:10">
-      <c r="A76" s="11"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="11"/>
-      <c r="I76" s="11"/>
-      <c r="J76" s="11"/>
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
     </row>
     <row r="77" spans="1:10">
-      <c r="A77" s="11"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11"/>
-      <c r="J77" s="11"/>
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
     </row>
     <row r="78" spans="1:10">
-      <c r="A78" s="11"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="11"/>
-      <c r="J78" s="11"/>
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="11"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="11"/>
-      <c r="I79" s="11"/>
-      <c r="J79" s="11"/>
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="11"/>
-      <c r="B80" s="11"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="11"/>
-      <c r="I80" s="11"/>
-      <c r="J80" s="11"/>
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
     </row>
     <row r="81" spans="1:10">
-      <c r="A81" s="11"/>
-      <c r="B81" s="11"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="11"/>
-      <c r="I81" s="11"/>
-      <c r="J81" s="11"/>
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
     </row>
     <row r="82" spans="1:10">
-      <c r="A82" s="11"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="11"/>
-      <c r="I82" s="11"/>
-      <c r="J82" s="11"/>
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
     </row>
     <row r="83" spans="1:10">
-      <c r="A83" s="11"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
-      <c r="H83" s="11"/>
-      <c r="I83" s="11"/>
-      <c r="J83" s="11"/>
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
     </row>
     <row r="84" spans="1:10">
-      <c r="A84" s="22"/>
-      <c r="B84" s="22"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="22"/>
-      <c r="I84" s="22"/>
-      <c r="J84" s="22"/>
+      <c r="A84" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B84" s="14">
+        <v>0.849</v>
+      </c>
+      <c r="C84" s="14">
+        <v>0.959</v>
+      </c>
+      <c r="D84" s="14">
+        <v>0.985</v>
+      </c>
+      <c r="E84" s="14">
+        <v>0.803</v>
+      </c>
+      <c r="F84" s="14">
+        <v>0.655</v>
+      </c>
+      <c r="G84" s="14">
+        <v>0.568</v>
+      </c>
+      <c r="H84" s="14">
+        <v>2.974</v>
+      </c>
+      <c r="I84" s="14">
+        <v>0.841</v>
+      </c>
+      <c r="J84" s="14">
+        <v>0.666</v>
+      </c>
     </row>
     <row r="85" spans="1:10">
-      <c r="A85" s="22"/>
-      <c r="B85" s="22"/>
-      <c r="C85" s="22"/>
-      <c r="D85" s="22"/>
-      <c r="E85" s="22"/>
-      <c r="F85" s="22"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="22"/>
-      <c r="I85" s="22"/>
-      <c r="J85" s="22"/>
+      <c r="A85" s="14"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="14"/>
+      <c r="J85" s="14"/>
     </row>
     <row r="86" spans="1:10">
-      <c r="A86" s="22"/>
-      <c r="B86" s="22"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="22"/>
-      <c r="E86" s="22"/>
-      <c r="F86" s="22"/>
-      <c r="G86" s="22"/>
-      <c r="H86" s="22"/>
-      <c r="I86" s="22"/>
-      <c r="J86" s="22"/>
+      <c r="A86" s="14"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="14"/>
+      <c r="J86" s="14"/>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="22"/>
-      <c r="B87" s="22"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="22"/>
-      <c r="E87" s="22"/>
-      <c r="F87" s="22"/>
-      <c r="G87" s="22"/>
-      <c r="H87" s="22"/>
-      <c r="I87" s="22"/>
-      <c r="J87" s="22"/>
+      <c r="A87" s="14"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="14"/>
+      <c r="J87" s="14"/>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="22"/>
-      <c r="B88" s="22"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
-      <c r="E88" s="22"/>
-      <c r="F88" s="22"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="22"/>
-      <c r="I88" s="22"/>
-      <c r="J88" s="22"/>
+      <c r="A88" s="14"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="14"/>
+      <c r="J88" s="14"/>
     </row>
     <row r="89" spans="1:10">
-      <c r="A89" s="22"/>
-      <c r="B89" s="22"/>
-      <c r="C89" s="22"/>
-      <c r="D89" s="22"/>
-      <c r="E89" s="22"/>
-      <c r="F89" s="22"/>
-      <c r="G89" s="22"/>
-      <c r="H89" s="22"/>
-      <c r="I89" s="22"/>
-      <c r="J89" s="22"/>
+      <c r="A89" s="14"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="14"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="14"/>
+      <c r="J89" s="14"/>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="15"/>
+      <c r="B90" s="15"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="15"/>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="15"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="15"/>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="15"/>
+      <c r="B92" s="15"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="15"/>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="15"/>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" s="15"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="15"/>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="15"/>
+      <c r="B94" s="15"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="15"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="15"/>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B95" s="16"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="16"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="16"/>
+      <c r="J95" s="16"/>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="16"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="16"/>
+      <c r="I96" s="16"/>
+      <c r="J96" s="16"/>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="16"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="16"/>
+      <c r="H97" s="16"/>
+      <c r="I97" s="16"/>
+      <c r="J97" s="16"/>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" s="16"/>
+      <c r="B98" s="16"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="16"/>
+      <c r="H98" s="16"/>
+      <c r="I98" s="16"/>
+      <c r="J98" s="16"/>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" s="16"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="16"/>
+      <c r="H99" s="16"/>
+      <c r="I99" s="16"/>
+      <c r="J99" s="16"/>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" s="16"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="16"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="16"/>
+      <c r="H100" s="16"/>
+      <c r="I100" s="16"/>
+      <c r="J100" s="16"/>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" s="16"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="16"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="16"/>
+      <c r="H101" s="16"/>
+      <c r="I101" s="16"/>
+      <c r="J101" s="16"/>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" s="16"/>
+      <c r="B102" s="16"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="16"/>
+      <c r="H102" s="16"/>
+      <c r="I102" s="16"/>
+      <c r="J102" s="16"/>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" s="16"/>
+      <c r="B103" s="16"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="16"/>
+      <c r="G103" s="16"/>
+      <c r="H103" s="16"/>
+      <c r="I103" s="16"/>
+      <c r="J103" s="16"/>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" s="16"/>
+      <c r="B104" s="16"/>
+      <c r="C104" s="16"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="16"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="16"/>
+      <c r="H104" s="16"/>
+      <c r="I104" s="16"/>
+      <c r="J104" s="16"/>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" s="16"/>
+      <c r="B105" s="16"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="16"/>
+      <c r="G105" s="16"/>
+      <c r="H105" s="16"/>
+      <c r="I105" s="16"/>
+      <c r="J105" s="16"/>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" s="16"/>
+      <c r="B106" s="16"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="16"/>
+      <c r="F106" s="16"/>
+      <c r="G106" s="16"/>
+      <c r="H106" s="16"/>
+      <c r="I106" s="16"/>
+      <c r="J106" s="16"/>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B107" s="17">
+        <v>80.8</v>
+      </c>
+      <c r="C107" s="17">
+        <v>70</v>
+      </c>
+      <c r="D107" s="17">
+        <v>92.5</v>
+      </c>
+      <c r="E107" s="17">
+        <v>76.9</v>
+      </c>
+      <c r="F107" s="17">
+        <v>65.1</v>
+      </c>
+      <c r="G107" s="17">
+        <v>61</v>
+      </c>
+      <c r="H107" s="17"/>
+      <c r="I107" s="17"/>
+      <c r="J107" s="17"/>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" s="17"/>
+      <c r="B108" s="17"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="17"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="17"/>
+      <c r="G108" s="17"/>
+      <c r="H108" s="17"/>
+      <c r="I108" s="17"/>
+      <c r="J108" s="17"/>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" s="17"/>
+      <c r="B109" s="17"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="17"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="17"/>
+      <c r="G109" s="17"/>
+      <c r="H109" s="17"/>
+      <c r="I109" s="17"/>
+      <c r="J109" s="17"/>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" s="17"/>
+      <c r="B110" s="17"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="17"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="17"/>
+      <c r="G110" s="17"/>
+      <c r="H110" s="17"/>
+      <c r="I110" s="17"/>
+      <c r="J110" s="17"/>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" s="17"/>
+      <c r="B111" s="17"/>
+      <c r="C111" s="17"/>
+      <c r="D111" s="17"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="17"/>
+      <c r="G111" s="17"/>
+      <c r="H111" s="17"/>
+      <c r="I111" s="17"/>
+      <c r="J111" s="17"/>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B112" s="18">
+        <v>76.7</v>
+      </c>
+      <c r="C112" s="18">
+        <v>70.5</v>
+      </c>
+      <c r="D112" s="18">
+        <v>79.9</v>
+      </c>
+      <c r="E112" s="18">
+        <v>75.6</v>
+      </c>
+      <c r="F112" s="18">
+        <v>63.4</v>
+      </c>
+      <c r="G112" s="18">
+        <v>60.5</v>
+      </c>
+      <c r="H112" s="18"/>
+      <c r="I112" s="18"/>
+      <c r="J112" s="18"/>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" s="18"/>
+      <c r="B113" s="18"/>
+      <c r="C113" s="18"/>
+      <c r="D113" s="18"/>
+      <c r="E113" s="18"/>
+      <c r="F113" s="18"/>
+      <c r="G113" s="18"/>
+      <c r="H113" s="18"/>
+      <c r="I113" s="18"/>
+      <c r="J113" s="18"/>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" s="18"/>
+      <c r="B114" s="18"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="18"/>
+      <c r="E114" s="18"/>
+      <c r="F114" s="18"/>
+      <c r="G114" s="18"/>
+      <c r="H114" s="18"/>
+      <c r="I114" s="18"/>
+      <c r="J114" s="18"/>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" s="18"/>
+      <c r="B115" s="18"/>
+      <c r="C115" s="18"/>
+      <c r="D115" s="18"/>
+      <c r="E115" s="18"/>
+      <c r="F115" s="18"/>
+      <c r="G115" s="18"/>
+      <c r="H115" s="18"/>
+      <c r="I115" s="18"/>
+      <c r="J115" s="18"/>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" s="18"/>
+      <c r="B116" s="18"/>
+      <c r="C116" s="18"/>
+      <c r="D116" s="18"/>
+      <c r="E116" s="18"/>
+      <c r="F116" s="18"/>
+      <c r="G116" s="18"/>
+      <c r="H116" s="18"/>
+      <c r="I116" s="18"/>
+      <c r="J116" s="18"/>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" s="18"/>
+      <c r="B117" s="18"/>
+      <c r="C117" s="18"/>
+      <c r="D117" s="18"/>
+      <c r="E117" s="18"/>
+      <c r="F117" s="18"/>
+      <c r="G117" s="18"/>
+      <c r="H117" s="18"/>
+      <c r="I117" s="18"/>
+      <c r="J117" s="18"/>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B118" s="19">
+        <v>78.5</v>
+      </c>
+      <c r="C118" s="19">
+        <v>70.5</v>
+      </c>
+      <c r="D118" s="19">
+        <v>89.2</v>
+      </c>
+      <c r="E118" s="19">
+        <v>72.1</v>
+      </c>
+      <c r="F118" s="20">
+        <v>55</v>
+      </c>
+      <c r="G118" s="19">
+        <v>59.8</v>
+      </c>
+      <c r="H118" s="19"/>
+      <c r="I118" s="19"/>
+      <c r="J118" s="19"/>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" s="19"/>
+      <c r="B119" s="19"/>
+      <c r="C119" s="19"/>
+      <c r="D119" s="19"/>
+      <c r="E119" s="19"/>
+      <c r="F119" s="19"/>
+      <c r="G119" s="19"/>
+      <c r="H119" s="19"/>
+      <c r="I119" s="19"/>
+      <c r="J119" s="19"/>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" s="19"/>
+      <c r="B120" s="19"/>
+      <c r="C120" s="19"/>
+      <c r="D120" s="19"/>
+      <c r="E120" s="19"/>
+      <c r="F120" s="19"/>
+      <c r="G120" s="19"/>
+      <c r="H120" s="19"/>
+      <c r="I120" s="19"/>
+      <c r="J120" s="19"/>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" s="19"/>
+      <c r="B121" s="19"/>
+      <c r="C121" s="19"/>
+      <c r="D121" s="19"/>
+      <c r="E121" s="19"/>
+      <c r="F121" s="19"/>
+      <c r="G121" s="19"/>
+      <c r="H121" s="19"/>
+      <c r="I121" s="19"/>
+      <c r="J121" s="19"/>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" s="19"/>
+      <c r="B122" s="19"/>
+      <c r="C122" s="19"/>
+      <c r="D122" s="19"/>
+      <c r="E122" s="19"/>
+      <c r="F122" s="19"/>
+      <c r="G122" s="19"/>
+      <c r="H122" s="19"/>
+      <c r="I122" s="19"/>
+      <c r="J122" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/自己论文/对比实验数据.xlsx
+++ b/自己论文/对比实验数据.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>模型\数据集</t>
   </si>
@@ -64,7 +64,10 @@
     <t>AttentiveFP</t>
   </si>
   <si>
-    <t>N-Gram</t>
+    <t>N-Gram-RF</t>
+  </si>
+  <si>
+    <t>N-Gram-XGB</t>
   </si>
   <si>
     <t>SchNet</t>
@@ -88,7 +91,10 @@
     <t>MolCLR</t>
   </si>
   <si>
-    <t>GROVER</t>
+    <t>GROVER-large</t>
+  </si>
+  <si>
+    <t>GROVER-base</t>
   </si>
   <si>
     <t>smiles-bert</t>
@@ -799,7 +805,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -830,6 +836,9 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -851,17 +860,26 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1177,9 +1195,9 @@
   <dimension ref="A1:J122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M63" sqref="M63"/>
+      <selection pane="bottomLeft" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1279,15 +1297,33 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="B4" s="3">
+        <v>0.784</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.643</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.847</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.761</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.637</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.606</v>
+      </c>
+      <c r="H4" s="3">
+        <v>2.073</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.877</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.721</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="3"/>
@@ -1363,15 +1399,31 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="B10" s="4">
+        <v>0.779</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.697</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.775</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.743</v>
+      </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="G10" s="4">
+        <v>0.668</v>
+      </c>
+      <c r="H10" s="4">
+        <v>2.688</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1.074</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.812</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="4"/>
@@ -1398,16 +1450,34 @@
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.791</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.691</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.758</v>
+      </c>
       <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="G13" s="4">
+        <v>0.655</v>
+      </c>
+      <c r="H13" s="4">
+        <v>5.061</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1.083</v>
+      </c>
+      <c r="J13" s="4">
+        <v>2.072</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="4"/>
@@ -1447,7 +1517,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B17" s="5">
         <v>0.75</v>
@@ -1555,7 +1625,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B24" s="7">
         <v>0.845</v>
@@ -1679,7 +1749,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B32" s="8">
         <v>0.815</v>
@@ -1789,7 +1859,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B40" s="9">
         <v>0.852</v>
@@ -1815,12 +1885,24 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
+      <c r="B41" s="9">
+        <v>0.809</v>
+      </c>
+      <c r="C41" s="9">
+        <v>0.71</v>
+      </c>
+      <c r="D41" s="9">
+        <v>0.906</v>
+      </c>
+      <c r="E41" s="9">
+        <v>0.759</v>
+      </c>
+      <c r="F41" s="9">
+        <v>0.655</v>
+      </c>
+      <c r="G41" s="10">
+        <v>0.57</v>
+      </c>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -1898,432 +1980,468 @@
       <c r="J47" s="9"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B48" s="10">
+      <c r="A48" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="11">
         <v>0.869</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="11">
         <v>0.929</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="11">
         <v>0.922</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E48" s="11">
         <v>0.81</v>
       </c>
-      <c r="F48" s="10">
+      <c r="F48" s="11">
         <v>0.709</v>
       </c>
-      <c r="G48" s="10">
+      <c r="G48" s="11">
         <v>0.617</v>
       </c>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11">
         <v>0.873</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="11">
         <v>0.927</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="11">
         <v>0.901</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E49" s="11">
         <v>0.837</v>
       </c>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10">
+      <c r="F49" s="11"/>
+      <c r="G49" s="11">
         <v>0.639</v>
       </c>
-      <c r="H49" s="10">
+      <c r="H49" s="11">
         <v>1.57</v>
       </c>
-      <c r="I49" s="10">
+      <c r="I49" s="11">
         <v>0.798</v>
       </c>
-      <c r="J49" s="10"/>
+      <c r="J49" s="11"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B56" s="11">
+      <c r="A56" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" s="12">
         <v>0.812</v>
       </c>
-      <c r="C56" s="11">
+      <c r="C56" s="12">
         <v>0.724</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D56" s="12">
         <v>0.791</v>
       </c>
-      <c r="E56" s="11">
+      <c r="E56" s="12">
         <v>0.759</v>
       </c>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11">
+      <c r="F56" s="12"/>
+      <c r="G56" s="12">
         <v>0.639</v>
       </c>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11">
+      <c r="A57" s="12"/>
+      <c r="B57" s="12">
         <v>0.812</v>
       </c>
-      <c r="C57" s="11">
+      <c r="C57" s="12">
         <v>0.724</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D57" s="12">
         <v>0.791</v>
       </c>
-      <c r="E57" s="11">
+      <c r="E57" s="12">
         <v>0.795</v>
       </c>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11">
+      <c r="F57" s="12"/>
+      <c r="G57" s="12">
         <v>0.639</v>
       </c>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11">
+      <c r="A58" s="12"/>
+      <c r="B58" s="12">
         <v>0.81</v>
       </c>
-      <c r="C58" s="11">
+      <c r="C58" s="12">
         <v>0.74</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D58" s="12">
         <v>0.75</v>
       </c>
-      <c r="E58" s="11">
+      <c r="E58" s="12">
         <v>0.7</v>
       </c>
-      <c r="F58" s="11">
+      <c r="F58" s="12">
         <v>0.6</v>
       </c>
-      <c r="G58" s="11">
+      <c r="G58" s="12">
         <v>0.61</v>
       </c>
-      <c r="H58" s="11">
+      <c r="H58" s="12">
         <v>2.55</v>
       </c>
-      <c r="I58" s="11">
+      <c r="I58" s="12">
         <v>1.32</v>
       </c>
-      <c r="J58" s="11">
+      <c r="J58" s="12">
         <v>0.76</v>
       </c>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11">
+      <c r="A59" s="12"/>
+      <c r="B59" s="12">
         <v>0.812</v>
       </c>
-      <c r="C59" s="11">
+      <c r="C59" s="12">
         <v>0.724</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D59" s="12">
         <v>0.775</v>
       </c>
-      <c r="E59" s="11">
+      <c r="E59" s="12">
         <v>0.744</v>
       </c>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11">
+      <c r="F59" s="12"/>
+      <c r="G59" s="12">
         <v>0.639</v>
       </c>
-      <c r="H59" s="11">
+      <c r="H59" s="12">
         <v>1.893</v>
       </c>
-      <c r="I59" s="11">
+      <c r="I59" s="12">
         <v>1.029</v>
       </c>
-      <c r="J59" s="11"/>
+      <c r="J59" s="12"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="12">
+        <v>0.8271</v>
+      </c>
+      <c r="C60" s="12">
+        <v>0.7483</v>
+      </c>
+      <c r="D60" s="12">
+        <v>0.7589</v>
+      </c>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
+      <c r="A61" s="12"/>
+      <c r="B61" s="12">
+        <v>0.812</v>
+      </c>
+      <c r="C61" s="12">
+        <v>0.724</v>
+      </c>
+      <c r="D61" s="12">
+        <v>0.791</v>
+      </c>
+      <c r="E61" s="12">
+        <v>0.759</v>
+      </c>
+      <c r="F61" s="12">
+        <v>0.631</v>
+      </c>
+      <c r="G61" s="12">
+        <v>0.639</v>
+      </c>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12">
+        <v>1.029</v>
+      </c>
+      <c r="J61" s="12">
+        <v>0.681</v>
+      </c>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="11"/>
+      <c r="A62" s="12"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11"/>
+      <c r="A63" s="12"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B64" s="12">
+      <c r="A64" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B64" s="13">
         <v>0.788</v>
       </c>
-      <c r="C64" s="12">
+      <c r="C64" s="13">
         <v>0.738</v>
       </c>
-      <c r="D64" s="12">
+      <c r="D64" s="13">
         <v>0.867</v>
       </c>
-      <c r="E64" s="12">
+      <c r="E64" s="13">
         <v>0.747</v>
       </c>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12">
+      <c r="F64" s="13"/>
+      <c r="G64" s="13">
         <v>0.669</v>
       </c>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="12"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="12"/>
-      <c r="B65" s="12">
+      <c r="A65" s="13"/>
+      <c r="B65" s="13">
         <v>0.75</v>
       </c>
-      <c r="C65" s="12">
+      <c r="C65" s="13">
         <v>0.65</v>
       </c>
-      <c r="D65" s="12">
+      <c r="D65" s="13">
         <v>0.72</v>
       </c>
-      <c r="E65" s="12">
+      <c r="E65" s="13">
         <v>0.75</v>
       </c>
-      <c r="F65" s="12">
+      <c r="F65" s="13">
         <v>0.74</v>
       </c>
-      <c r="G65" s="12">
+      <c r="G65" s="13">
         <v>0.62</v>
       </c>
-      <c r="H65" s="12">
+      <c r="H65" s="13">
         <v>2.48</v>
       </c>
-      <c r="I65" s="12">
+      <c r="I65" s="13">
         <v>1.46</v>
       </c>
-      <c r="J65" s="12">
+      <c r="J65" s="13">
         <v>0.82</v>
       </c>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="12"/>
-      <c r="B66" s="12">
+      <c r="A66" s="13"/>
+      <c r="B66" s="13">
         <v>0.7114</v>
       </c>
-      <c r="C66" s="12">
+      <c r="C66" s="13">
         <v>0.6779</v>
       </c>
-      <c r="D66" s="12">
+      <c r="D66" s="13">
         <v>0.8422</v>
       </c>
-      <c r="E66" s="12">
+      <c r="E66" s="13">
         <v>0.7555</v>
       </c>
-      <c r="F66" s="12">
+      <c r="F66" s="13">
         <v>0.6458</v>
       </c>
-      <c r="G66" s="12">
+      <c r="G66" s="13">
         <v>0.5866</v>
       </c>
-      <c r="H66" s="12"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="12"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="13"/>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="12"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="12"/>
+      <c r="A67" s="13"/>
+      <c r="B67" s="13">
+        <v>0.824</v>
+      </c>
+      <c r="C67" s="13">
+        <v>0.722</v>
+      </c>
+      <c r="D67" s="13">
+        <v>0.912</v>
+      </c>
+      <c r="E67" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13">
+        <v>0.589</v>
+      </c>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13">
+        <v>1.029</v>
+      </c>
+      <c r="J67" s="13">
+        <v>0.681</v>
+      </c>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="12"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="12"/>
+      <c r="A68" s="13"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="13"/>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="12"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="12"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="13"/>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="12"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
+      <c r="A70" s="13"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="13"/>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="12"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="12"/>
+      <c r="A71" s="13"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="13"/>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="12"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="12"/>
+      <c r="A72" s="13"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="13"/>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B73" s="7">
         <v>0.79</v>
@@ -2379,21 +2497,39 @@
       <c r="I74" s="7">
         <v>0.831</v>
       </c>
-      <c r="J74" s="13">
+      <c r="J74" s="14">
         <v>0.56</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
+      <c r="B75" s="7">
+        <v>0.826</v>
+      </c>
+      <c r="C75" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="D75" s="7">
+        <v>0.812</v>
+      </c>
+      <c r="E75" s="7">
+        <v>0.743</v>
+      </c>
+      <c r="F75" s="7">
+        <v>0.654</v>
+      </c>
+      <c r="G75" s="7">
+        <v>0.648</v>
+      </c>
+      <c r="H75" s="7">
+        <v>2.272</v>
+      </c>
+      <c r="I75" s="7">
+        <v>0.895</v>
+      </c>
+      <c r="J75" s="7">
+        <v>0.823</v>
+      </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="7"/>
@@ -2420,16 +2556,36 @@
       <c r="J77" s="7"/>
     </row>
     <row r="78" spans="1:10">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
+      <c r="A78" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B78" s="14">
+        <v>0.81</v>
+      </c>
+      <c r="C78" s="7">
+        <v>0.695</v>
+      </c>
+      <c r="D78" s="7">
+        <v>0.762</v>
+      </c>
+      <c r="E78" s="7">
+        <v>0.735</v>
+      </c>
+      <c r="F78" s="7">
+        <v>0.653</v>
+      </c>
+      <c r="G78" s="7">
+        <v>0.654</v>
+      </c>
+      <c r="H78" s="7">
+        <v>2.176</v>
+      </c>
+      <c r="I78" s="7">
+        <v>0.983</v>
+      </c>
+      <c r="J78" s="7">
+        <v>0.817</v>
+      </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="7"/>
@@ -2492,99 +2648,99 @@
       <c r="J83" s="7"/>
     </row>
     <row r="84" spans="1:10">
-      <c r="A84" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B84" s="14">
+      <c r="A84" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B84" s="15">
         <v>0.849</v>
       </c>
-      <c r="C84" s="14">
+      <c r="C84" s="15">
         <v>0.959</v>
       </c>
-      <c r="D84" s="14">
+      <c r="D84" s="15">
         <v>0.985</v>
       </c>
-      <c r="E84" s="14">
+      <c r="E84" s="15">
         <v>0.803</v>
       </c>
-      <c r="F84" s="14">
+      <c r="F84" s="15">
         <v>0.655</v>
       </c>
-      <c r="G84" s="14">
+      <c r="G84" s="15">
         <v>0.568</v>
       </c>
-      <c r="H84" s="14">
+      <c r="H84" s="15">
         <v>2.974</v>
       </c>
-      <c r="I84" s="14">
+      <c r="I84" s="15">
         <v>0.841</v>
       </c>
-      <c r="J84" s="14">
+      <c r="J84" s="15">
         <v>0.666</v>
       </c>
     </row>
     <row r="85" spans="1:10">
-      <c r="A85" s="14"/>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="14"/>
-      <c r="H85" s="14"/>
-      <c r="I85" s="14"/>
-      <c r="J85" s="14"/>
+      <c r="A85" s="15"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="15"/>
     </row>
     <row r="86" spans="1:10">
-      <c r="A86" s="14"/>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="14"/>
-      <c r="H86" s="14"/>
-      <c r="I86" s="14"/>
-      <c r="J86" s="14"/>
+      <c r="A86" s="15"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="15"/>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="14"/>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
-      <c r="H87" s="14"/>
-      <c r="I87" s="14"/>
-      <c r="J87" s="14"/>
+      <c r="A87" s="15"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="15"/>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="14"/>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c r="G88" s="14"/>
-      <c r="H88" s="14"/>
-      <c r="I88" s="14"/>
-      <c r="J88" s="14"/>
+      <c r="A88" s="15"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="15"/>
     </row>
     <row r="89" spans="1:10">
-      <c r="A89" s="14"/>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c r="G89" s="14"/>
-      <c r="H89" s="14"/>
-      <c r="I89" s="14"/>
-      <c r="J89" s="14"/>
+      <c r="A89" s="15"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="15"/>
     </row>
     <row r="90" spans="1:10">
-      <c r="A90" s="15"/>
+      <c r="A90" s="16"/>
       <c r="B90" s="15"/>
       <c r="C90" s="15"/>
       <c r="D90" s="15"/>
@@ -2596,7 +2752,7 @@
       <c r="J90" s="15"/>
     </row>
     <row r="91" spans="1:10">
-      <c r="A91" s="15"/>
+      <c r="A91" s="16"/>
       <c r="B91" s="15"/>
       <c r="C91" s="15"/>
       <c r="D91" s="15"/>
@@ -2608,7 +2764,7 @@
       <c r="J91" s="15"/>
     </row>
     <row r="92" spans="1:10">
-      <c r="A92" s="15"/>
+      <c r="A92" s="16"/>
       <c r="B92" s="15"/>
       <c r="C92" s="15"/>
       <c r="D92" s="15"/>
@@ -2620,7 +2776,7 @@
       <c r="J92" s="15"/>
     </row>
     <row r="93" spans="1:10">
-      <c r="A93" s="15"/>
+      <c r="A93" s="16"/>
       <c r="B93" s="15"/>
       <c r="C93" s="15"/>
       <c r="D93" s="15"/>
@@ -2632,7 +2788,7 @@
       <c r="J93" s="15"/>
     </row>
     <row r="94" spans="1:10">
-      <c r="A94" s="15"/>
+      <c r="A94" s="16"/>
       <c r="B94" s="15"/>
       <c r="C94" s="15"/>
       <c r="D94" s="15"/>
@@ -2644,384 +2800,384 @@
       <c r="J94" s="15"/>
     </row>
     <row r="95" spans="1:10">
-      <c r="A95" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B95" s="16"/>
-      <c r="C95" s="16"/>
-      <c r="D95" s="16"/>
-      <c r="E95" s="16"/>
-      <c r="F95" s="16"/>
-      <c r="G95" s="16"/>
-      <c r="H95" s="16"/>
-      <c r="I95" s="16"/>
-      <c r="J95" s="16"/>
+      <c r="A95" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B95" s="18"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="18"/>
+      <c r="F95" s="18"/>
+      <c r="G95" s="18"/>
+      <c r="H95" s="18"/>
+      <c r="I95" s="18"/>
+      <c r="J95" s="18"/>
     </row>
     <row r="96" spans="1:10">
-      <c r="A96" s="16"/>
-      <c r="B96" s="16"/>
-      <c r="C96" s="16"/>
-      <c r="D96" s="16"/>
-      <c r="E96" s="16"/>
-      <c r="F96" s="16"/>
-      <c r="G96" s="16"/>
-      <c r="H96" s="16"/>
-      <c r="I96" s="16"/>
-      <c r="J96" s="16"/>
+      <c r="A96" s="17"/>
+      <c r="B96" s="18"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="18"/>
+      <c r="H96" s="18"/>
+      <c r="I96" s="18"/>
+      <c r="J96" s="18"/>
     </row>
     <row r="97" spans="1:10">
-      <c r="A97" s="16"/>
-      <c r="B97" s="16"/>
-      <c r="C97" s="16"/>
-      <c r="D97" s="16"/>
-      <c r="E97" s="16"/>
-      <c r="F97" s="16"/>
-      <c r="G97" s="16"/>
-      <c r="H97" s="16"/>
-      <c r="I97" s="16"/>
-      <c r="J97" s="16"/>
+      <c r="A97" s="17"/>
+      <c r="B97" s="18"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18"/>
+      <c r="H97" s="18"/>
+      <c r="I97" s="18"/>
+      <c r="J97" s="18"/>
     </row>
     <row r="98" spans="1:10">
-      <c r="A98" s="16"/>
-      <c r="B98" s="16"/>
-      <c r="C98" s="16"/>
-      <c r="D98" s="16"/>
-      <c r="E98" s="16"/>
-      <c r="F98" s="16"/>
-      <c r="G98" s="16"/>
-      <c r="H98" s="16"/>
-      <c r="I98" s="16"/>
-      <c r="J98" s="16"/>
+      <c r="A98" s="17"/>
+      <c r="B98" s="18"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="18"/>
+      <c r="H98" s="18"/>
+      <c r="I98" s="18"/>
+      <c r="J98" s="18"/>
     </row>
     <row r="99" spans="1:10">
-      <c r="A99" s="16"/>
-      <c r="B99" s="16"/>
-      <c r="C99" s="16"/>
-      <c r="D99" s="16"/>
-      <c r="E99" s="16"/>
-      <c r="F99" s="16"/>
-      <c r="G99" s="16"/>
-      <c r="H99" s="16"/>
-      <c r="I99" s="16"/>
-      <c r="J99" s="16"/>
+      <c r="A99" s="17"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="18"/>
+      <c r="H99" s="18"/>
+      <c r="I99" s="18"/>
+      <c r="J99" s="18"/>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="16"/>
-      <c r="B100" s="16"/>
-      <c r="C100" s="16"/>
-      <c r="D100" s="16"/>
-      <c r="E100" s="16"/>
-      <c r="F100" s="16"/>
-      <c r="G100" s="16"/>
-      <c r="H100" s="16"/>
-      <c r="I100" s="16"/>
-      <c r="J100" s="16"/>
+      <c r="A100" s="17"/>
+      <c r="B100" s="18"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="18"/>
+      <c r="E100" s="18"/>
+      <c r="F100" s="18"/>
+      <c r="G100" s="18"/>
+      <c r="H100" s="18"/>
+      <c r="I100" s="18"/>
+      <c r="J100" s="18"/>
     </row>
     <row r="101" spans="1:10">
-      <c r="A101" s="16"/>
-      <c r="B101" s="16"/>
-      <c r="C101" s="16"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="16"/>
-      <c r="F101" s="16"/>
-      <c r="G101" s="16"/>
-      <c r="H101" s="16"/>
-      <c r="I101" s="16"/>
-      <c r="J101" s="16"/>
+      <c r="A101" s="17"/>
+      <c r="B101" s="18"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="18"/>
+      <c r="G101" s="18"/>
+      <c r="H101" s="18"/>
+      <c r="I101" s="18"/>
+      <c r="J101" s="18"/>
     </row>
     <row r="102" spans="1:10">
-      <c r="A102" s="16"/>
-      <c r="B102" s="16"/>
-      <c r="C102" s="16"/>
-      <c r="D102" s="16"/>
-      <c r="E102" s="16"/>
-      <c r="F102" s="16"/>
-      <c r="G102" s="16"/>
-      <c r="H102" s="16"/>
-      <c r="I102" s="16"/>
-      <c r="J102" s="16"/>
+      <c r="A102" s="17"/>
+      <c r="B102" s="18"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="18"/>
+      <c r="F102" s="18"/>
+      <c r="G102" s="18"/>
+      <c r="H102" s="18"/>
+      <c r="I102" s="18"/>
+      <c r="J102" s="18"/>
     </row>
     <row r="103" spans="1:10">
-      <c r="A103" s="16"/>
-      <c r="B103" s="16"/>
-      <c r="C103" s="16"/>
-      <c r="D103" s="16"/>
-      <c r="E103" s="16"/>
-      <c r="F103" s="16"/>
-      <c r="G103" s="16"/>
-      <c r="H103" s="16"/>
-      <c r="I103" s="16"/>
-      <c r="J103" s="16"/>
+      <c r="A103" s="17"/>
+      <c r="B103" s="18"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="18"/>
+      <c r="E103" s="18"/>
+      <c r="F103" s="18"/>
+      <c r="G103" s="18"/>
+      <c r="H103" s="18"/>
+      <c r="I103" s="18"/>
+      <c r="J103" s="18"/>
     </row>
     <row r="104" spans="1:10">
-      <c r="A104" s="16"/>
-      <c r="B104" s="16"/>
-      <c r="C104" s="16"/>
-      <c r="D104" s="16"/>
-      <c r="E104" s="16"/>
-      <c r="F104" s="16"/>
-      <c r="G104" s="16"/>
-      <c r="H104" s="16"/>
-      <c r="I104" s="16"/>
-      <c r="J104" s="16"/>
+      <c r="A104" s="17"/>
+      <c r="B104" s="18"/>
+      <c r="C104" s="18"/>
+      <c r="D104" s="18"/>
+      <c r="E104" s="18"/>
+      <c r="F104" s="18"/>
+      <c r="G104" s="18"/>
+      <c r="H104" s="18"/>
+      <c r="I104" s="18"/>
+      <c r="J104" s="18"/>
     </row>
     <row r="105" spans="1:10">
-      <c r="A105" s="16"/>
-      <c r="B105" s="16"/>
-      <c r="C105" s="16"/>
-      <c r="D105" s="16"/>
-      <c r="E105" s="16"/>
-      <c r="F105" s="16"/>
-      <c r="G105" s="16"/>
-      <c r="H105" s="16"/>
-      <c r="I105" s="16"/>
-      <c r="J105" s="16"/>
+      <c r="A105" s="17"/>
+      <c r="B105" s="18"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="18"/>
+      <c r="F105" s="18"/>
+      <c r="G105" s="18"/>
+      <c r="H105" s="18"/>
+      <c r="I105" s="18"/>
+      <c r="J105" s="18"/>
     </row>
     <row r="106" spans="1:10">
-      <c r="A106" s="16"/>
-      <c r="B106" s="16"/>
-      <c r="C106" s="16"/>
-      <c r="D106" s="16"/>
-      <c r="E106" s="16"/>
-      <c r="F106" s="16"/>
-      <c r="G106" s="16"/>
-      <c r="H106" s="16"/>
-      <c r="I106" s="16"/>
-      <c r="J106" s="16"/>
+      <c r="A106" s="17"/>
+      <c r="B106" s="18"/>
+      <c r="C106" s="18"/>
+      <c r="D106" s="18"/>
+      <c r="E106" s="18"/>
+      <c r="F106" s="18"/>
+      <c r="G106" s="18"/>
+      <c r="H106" s="18"/>
+      <c r="I106" s="18"/>
+      <c r="J106" s="18"/>
     </row>
     <row r="107" spans="1:10">
-      <c r="A107" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B107" s="17">
+      <c r="A107" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B107" s="8">
         <v>80.8</v>
       </c>
-      <c r="C107" s="17">
+      <c r="C107" s="8">
         <v>70</v>
       </c>
-      <c r="D107" s="17">
+      <c r="D107" s="8">
         <v>92.5</v>
       </c>
-      <c r="E107" s="17">
+      <c r="E107" s="8">
         <v>76.9</v>
       </c>
-      <c r="F107" s="17">
+      <c r="F107" s="8">
         <v>65.1</v>
       </c>
-      <c r="G107" s="17">
+      <c r="G107" s="8">
         <v>61</v>
       </c>
-      <c r="H107" s="17"/>
-      <c r="I107" s="17"/>
-      <c r="J107" s="17"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="8"/>
+      <c r="J107" s="8"/>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="17"/>
-      <c r="B108" s="17"/>
-      <c r="C108" s="17"/>
-      <c r="D108" s="17"/>
-      <c r="E108" s="17"/>
-      <c r="F108" s="17"/>
-      <c r="G108" s="17"/>
-      <c r="H108" s="17"/>
-      <c r="I108" s="17"/>
-      <c r="J108" s="17"/>
+      <c r="A108" s="19"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="8"/>
+      <c r="J108" s="8"/>
     </row>
     <row r="109" spans="1:10">
-      <c r="A109" s="17"/>
-      <c r="B109" s="17"/>
-      <c r="C109" s="17"/>
-      <c r="D109" s="17"/>
-      <c r="E109" s="17"/>
-      <c r="F109" s="17"/>
-      <c r="G109" s="17"/>
-      <c r="H109" s="17"/>
-      <c r="I109" s="17"/>
-      <c r="J109" s="17"/>
+      <c r="A109" s="19"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="8"/>
+      <c r="J109" s="8"/>
     </row>
     <row r="110" spans="1:10">
-      <c r="A110" s="17"/>
-      <c r="B110" s="17"/>
-      <c r="C110" s="17"/>
-      <c r="D110" s="17"/>
-      <c r="E110" s="17"/>
-      <c r="F110" s="17"/>
-      <c r="G110" s="17"/>
-      <c r="H110" s="17"/>
-      <c r="I110" s="17"/>
-      <c r="J110" s="17"/>
+      <c r="A110" s="19"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8"/>
+      <c r="J110" s="8"/>
     </row>
     <row r="111" spans="1:10">
-      <c r="A111" s="17"/>
-      <c r="B111" s="17"/>
-      <c r="C111" s="17"/>
-      <c r="D111" s="17"/>
-      <c r="E111" s="17"/>
-      <c r="F111" s="17"/>
-      <c r="G111" s="17"/>
-      <c r="H111" s="17"/>
-      <c r="I111" s="17"/>
-      <c r="J111" s="17"/>
+      <c r="A111" s="19"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
+      <c r="J111" s="8"/>
     </row>
     <row r="112" spans="1:10">
-      <c r="A112" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B112" s="18">
+      <c r="A112" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B112" s="21">
         <v>76.7</v>
       </c>
-      <c r="C112" s="18">
+      <c r="C112" s="21">
         <v>70.5</v>
       </c>
-      <c r="D112" s="18">
+      <c r="D112" s="21">
         <v>79.9</v>
       </c>
-      <c r="E112" s="18">
+      <c r="E112" s="21">
         <v>75.6</v>
       </c>
-      <c r="F112" s="18">
+      <c r="F112" s="21">
         <v>63.4</v>
       </c>
-      <c r="G112" s="18">
+      <c r="G112" s="21">
         <v>60.5</v>
       </c>
-      <c r="H112" s="18"/>
-      <c r="I112" s="18"/>
-      <c r="J112" s="18"/>
+      <c r="H112" s="21"/>
+      <c r="I112" s="21"/>
+      <c r="J112" s="21"/>
     </row>
     <row r="113" spans="1:10">
-      <c r="A113" s="18"/>
-      <c r="B113" s="18"/>
-      <c r="C113" s="18"/>
-      <c r="D113" s="18"/>
-      <c r="E113" s="18"/>
-      <c r="F113" s="18"/>
-      <c r="G113" s="18"/>
-      <c r="H113" s="18"/>
-      <c r="I113" s="18"/>
-      <c r="J113" s="18"/>
+      <c r="A113" s="20"/>
+      <c r="B113" s="21"/>
+      <c r="C113" s="21"/>
+      <c r="D113" s="21"/>
+      <c r="E113" s="21"/>
+      <c r="F113" s="21"/>
+      <c r="G113" s="21"/>
+      <c r="H113" s="21"/>
+      <c r="I113" s="21"/>
+      <c r="J113" s="21"/>
     </row>
     <row r="114" spans="1:10">
-      <c r="A114" s="18"/>
-      <c r="B114" s="18"/>
-      <c r="C114" s="18"/>
-      <c r="D114" s="18"/>
-      <c r="E114" s="18"/>
-      <c r="F114" s="18"/>
-      <c r="G114" s="18"/>
-      <c r="H114" s="18"/>
-      <c r="I114" s="18"/>
-      <c r="J114" s="18"/>
+      <c r="A114" s="20"/>
+      <c r="B114" s="21"/>
+      <c r="C114" s="21"/>
+      <c r="D114" s="21"/>
+      <c r="E114" s="21"/>
+      <c r="F114" s="21"/>
+      <c r="G114" s="21"/>
+      <c r="H114" s="21"/>
+      <c r="I114" s="21"/>
+      <c r="J114" s="21"/>
     </row>
     <row r="115" spans="1:10">
-      <c r="A115" s="18"/>
-      <c r="B115" s="18"/>
-      <c r="C115" s="18"/>
-      <c r="D115" s="18"/>
-      <c r="E115" s="18"/>
-      <c r="F115" s="18"/>
-      <c r="G115" s="18"/>
-      <c r="H115" s="18"/>
-      <c r="I115" s="18"/>
-      <c r="J115" s="18"/>
+      <c r="A115" s="20"/>
+      <c r="B115" s="21"/>
+      <c r="C115" s="21"/>
+      <c r="D115" s="21"/>
+      <c r="E115" s="21"/>
+      <c r="F115" s="21"/>
+      <c r="G115" s="21"/>
+      <c r="H115" s="21"/>
+      <c r="I115" s="21"/>
+      <c r="J115" s="21"/>
     </row>
     <row r="116" spans="1:10">
-      <c r="A116" s="18"/>
-      <c r="B116" s="18"/>
-      <c r="C116" s="18"/>
-      <c r="D116" s="18"/>
-      <c r="E116" s="18"/>
-      <c r="F116" s="18"/>
-      <c r="G116" s="18"/>
-      <c r="H116" s="18"/>
-      <c r="I116" s="18"/>
-      <c r="J116" s="18"/>
+      <c r="A116" s="20"/>
+      <c r="B116" s="21"/>
+      <c r="C116" s="21"/>
+      <c r="D116" s="21"/>
+      <c r="E116" s="21"/>
+      <c r="F116" s="21"/>
+      <c r="G116" s="21"/>
+      <c r="H116" s="21"/>
+      <c r="I116" s="21"/>
+      <c r="J116" s="21"/>
     </row>
     <row r="117" spans="1:10">
-      <c r="A117" s="18"/>
-      <c r="B117" s="18"/>
-      <c r="C117" s="18"/>
-      <c r="D117" s="18"/>
-      <c r="E117" s="18"/>
-      <c r="F117" s="18"/>
-      <c r="G117" s="18"/>
-      <c r="H117" s="18"/>
-      <c r="I117" s="18"/>
-      <c r="J117" s="18"/>
+      <c r="A117" s="20"/>
+      <c r="B117" s="21"/>
+      <c r="C117" s="21"/>
+      <c r="D117" s="21"/>
+      <c r="E117" s="21"/>
+      <c r="F117" s="21"/>
+      <c r="G117" s="21"/>
+      <c r="H117" s="21"/>
+      <c r="I117" s="21"/>
+      <c r="J117" s="21"/>
     </row>
     <row r="118" spans="1:10">
-      <c r="A118" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B118" s="19">
+      <c r="A118" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B118" s="23">
         <v>78.5</v>
       </c>
-      <c r="C118" s="19">
+      <c r="C118" s="23">
         <v>70.5</v>
       </c>
-      <c r="D118" s="19">
+      <c r="D118" s="23">
         <v>89.2</v>
       </c>
-      <c r="E118" s="19">
+      <c r="E118" s="23">
         <v>72.1</v>
       </c>
-      <c r="F118" s="20">
+      <c r="F118" s="24">
         <v>55</v>
       </c>
-      <c r="G118" s="19">
+      <c r="G118" s="23">
         <v>59.8</v>
       </c>
-      <c r="H118" s="19"/>
-      <c r="I118" s="19"/>
-      <c r="J118" s="19"/>
+      <c r="H118" s="23"/>
+      <c r="I118" s="23"/>
+      <c r="J118" s="23"/>
     </row>
     <row r="119" spans="1:10">
-      <c r="A119" s="19"/>
-      <c r="B119" s="19"/>
-      <c r="C119" s="19"/>
-      <c r="D119" s="19"/>
-      <c r="E119" s="19"/>
-      <c r="F119" s="19"/>
-      <c r="G119" s="19"/>
-      <c r="H119" s="19"/>
-      <c r="I119" s="19"/>
-      <c r="J119" s="19"/>
+      <c r="A119" s="22"/>
+      <c r="B119" s="23"/>
+      <c r="C119" s="23"/>
+      <c r="D119" s="23"/>
+      <c r="E119" s="23"/>
+      <c r="F119" s="23"/>
+      <c r="G119" s="23"/>
+      <c r="H119" s="23"/>
+      <c r="I119" s="23"/>
+      <c r="J119" s="23"/>
     </row>
     <row r="120" spans="1:10">
-      <c r="A120" s="19"/>
-      <c r="B120" s="19"/>
-      <c r="C120" s="19"/>
-      <c r="D120" s="19"/>
-      <c r="E120" s="19"/>
-      <c r="F120" s="19"/>
-      <c r="G120" s="19"/>
-      <c r="H120" s="19"/>
-      <c r="I120" s="19"/>
-      <c r="J120" s="19"/>
+      <c r="A120" s="22"/>
+      <c r="B120" s="23"/>
+      <c r="C120" s="23"/>
+      <c r="D120" s="23"/>
+      <c r="E120" s="23"/>
+      <c r="F120" s="23"/>
+      <c r="G120" s="23"/>
+      <c r="H120" s="23"/>
+      <c r="I120" s="23"/>
+      <c r="J120" s="23"/>
     </row>
     <row r="121" spans="1:10">
-      <c r="A121" s="19"/>
-      <c r="B121" s="19"/>
-      <c r="C121" s="19"/>
-      <c r="D121" s="19"/>
-      <c r="E121" s="19"/>
-      <c r="F121" s="19"/>
-      <c r="G121" s="19"/>
-      <c r="H121" s="19"/>
-      <c r="I121" s="19"/>
-      <c r="J121" s="19"/>
+      <c r="A121" s="22"/>
+      <c r="B121" s="23"/>
+      <c r="C121" s="23"/>
+      <c r="D121" s="23"/>
+      <c r="E121" s="23"/>
+      <c r="F121" s="23"/>
+      <c r="G121" s="23"/>
+      <c r="H121" s="23"/>
+      <c r="I121" s="23"/>
+      <c r="J121" s="23"/>
     </row>
     <row r="122" spans="1:10">
-      <c r="A122" s="19"/>
-      <c r="B122" s="19"/>
-      <c r="C122" s="19"/>
-      <c r="D122" s="19"/>
-      <c r="E122" s="19"/>
-      <c r="F122" s="19"/>
-      <c r="G122" s="19"/>
-      <c r="H122" s="19"/>
-      <c r="I122" s="19"/>
-      <c r="J122" s="19"/>
+      <c r="A122" s="22"/>
+      <c r="B122" s="23"/>
+      <c r="C122" s="23"/>
+      <c r="D122" s="23"/>
+      <c r="E122" s="23"/>
+      <c r="F122" s="23"/>
+      <c r="G122" s="23"/>
+      <c r="H122" s="23"/>
+      <c r="I122" s="23"/>
+      <c r="J122" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/自己论文/对比实验数据.xlsx
+++ b/自己论文/对比实验数据.xlsx
@@ -1194,10 +1194,10 @@
   <sheetPr/>
   <dimension ref="A1:J122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M15" sqref="M15"/>
+      <selection pane="bottomLeft" activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/自己论文/对比实验数据.xlsx
+++ b/自己论文/对比实验数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9047"/>
+    <workbookView windowWidth="27948" windowHeight="12288"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>模型\数据集</t>
   </si>
@@ -82,9 +82,27 @@
     <t>DMPNN</t>
   </si>
   <si>
+    <t>2.170-0.536</t>
+  </si>
+  <si>
+    <t>0.972-0.097</t>
+  </si>
+  <si>
+    <t>0.652-0.051</t>
+  </si>
+  <si>
     <t>CMPNN</t>
   </si>
   <si>
+    <t>1.833-0.580</t>
+  </si>
+  <si>
+    <t>0.845-0.039</t>
+  </si>
+  <si>
+    <t>0.658-0.029</t>
+  </si>
+  <si>
     <t>GraphMVP</t>
   </si>
   <si>
@@ -95,6 +113,15 @@
   </si>
   <si>
     <t>GROVER-base</t>
+  </si>
+  <si>
+    <t>2.026-0.127</t>
+  </si>
+  <si>
+    <t>0.921-0.092</t>
+  </si>
+  <si>
+    <t>0.646-0.021</t>
   </si>
   <si>
     <t>smiles-bert</t>
@@ -1195,9 +1222,9 @@
   <dimension ref="A1:J122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A118" sqref="A118"/>
+      <selection pane="bottomLeft" activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1211,7 +1238,7 @@
     <col min="7" max="7" width="16.7777777777778" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.5555555555556" style="1" customWidth="1"/>
     <col min="9" max="9" width="18.1111111111111" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.3333333333333" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.4444444444444" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1879,9 +1906,15 @@
       <c r="G40" s="9">
         <v>0.632</v>
       </c>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
+      <c r="H40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="9"/>
@@ -1981,7 +2014,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B48" s="11">
         <v>0.869</v>
@@ -2039,9 +2072,15 @@
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
+      <c r="H50" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="11"/>
@@ -2105,7 +2144,7 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="12" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B56" s="12">
         <v>0.812</v>
@@ -2277,7 +2316,7 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="13" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B64" s="13">
         <v>0.788</v>
@@ -2441,7 +2480,7 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B73" s="7">
         <v>0.79</v>
@@ -2557,7 +2596,7 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B78" s="14">
         <v>0.81</v>
@@ -2595,9 +2634,15 @@
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
+      <c r="H79" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="7"/>
@@ -2649,7 +2694,7 @@
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="15" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B84" s="15">
         <v>0.849</v>
@@ -2801,7 +2846,7 @@
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="17" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B95" s="18"/>
       <c r="C95" s="18"/>
@@ -2947,7 +2992,7 @@
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="19" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B107" s="8">
         <v>80.8</v>
@@ -3021,7 +3066,7 @@
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="20" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B112" s="21">
         <v>76.7</v>
@@ -3107,7 +3152,7 @@
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="22" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B118" s="23">
         <v>78.5</v>

--- a/自己论文/对比实验数据.xlsx
+++ b/自己论文/对比实验数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27948" windowHeight="12288"/>
+    <workbookView windowWidth="22188" windowHeight="9047"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>模型\数据集</t>
   </si>
@@ -64,6 +64,21 @@
     <t>AttentiveFP</t>
   </si>
   <si>
+    <t>0.784-0.000</t>
+  </si>
+  <si>
+    <t>0.908-0.050</t>
+  </si>
+  <si>
+    <t>0.933-0.020</t>
+  </si>
+  <si>
+    <t>0.807-0.020</t>
+  </si>
+  <si>
+    <t>0.605-0.060</t>
+  </si>
+  <si>
     <t>N-Gram-RF</t>
   </si>
   <si>
@@ -91,9 +106,39 @@
     <t>0.652-0.051</t>
   </si>
   <si>
+    <t>0.823-0.038</t>
+  </si>
+  <si>
+    <t>0.911-0.048</t>
+  </si>
+  <si>
+    <t>0.879-0.040</t>
+  </si>
+  <si>
+    <t>0.808-0.023</t>
+  </si>
+  <si>
+    <t>0.610-0.027</t>
+  </si>
+  <si>
     <t>CMPNN</t>
   </si>
   <si>
+    <t>0.821-0.006</t>
+  </si>
+  <si>
+    <t>0.927-0.002</t>
+  </si>
+  <si>
+    <t>0.902-0.012</t>
+  </si>
+  <si>
+    <t>0.806-0.016</t>
+  </si>
+  <si>
+    <t>0.616-0.003</t>
+  </si>
+  <si>
     <t>1.833-0.580</t>
   </si>
   <si>
@@ -113,6 +158,21 @@
   </si>
   <si>
     <t>GROVER-base</t>
+  </si>
+  <si>
+    <t>0.835-0.044</t>
+  </si>
+  <si>
+    <t>0.911-0.008</t>
+  </si>
+  <si>
+    <t>0.882-0.013</t>
+  </si>
+  <si>
+    <t>0.806-0.017</t>
+  </si>
+  <si>
+    <t>0.621-0.027</t>
   </si>
   <si>
     <t>2.026-0.127</t>
@@ -1221,10 +1281,10 @@
   <sheetPr/>
   <dimension ref="A1:J122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L46" sqref="L46"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1354,12 +1414,22 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -1402,7 +1472,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B9" s="4">
         <v>0.876</v>
@@ -1478,7 +1548,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B13" s="4">
         <v>0.791</v>
@@ -1544,7 +1614,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B17" s="5">
         <v>0.75</v>
@@ -1652,7 +1722,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B24" s="7">
         <v>0.845</v>
@@ -1776,7 +1846,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B32" s="8">
         <v>0.815</v>
@@ -1886,7 +1956,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B40" s="9">
         <v>0.852</v>
@@ -1907,13 +1977,13 @@
         <v>0.632</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1942,12 +2012,22 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
+      <c r="B42" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
+      <c r="G42" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2014,7 +2094,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="11" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B48" s="11">
         <v>0.869</v>
@@ -2066,20 +2146,30 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
+      <c r="B50" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
+      <c r="G50" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="H50" s="11" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2144,7 +2234,7 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="12" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B56" s="12">
         <v>0.812</v>
@@ -2316,7 +2406,7 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="13" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B64" s="13">
         <v>0.788</v>
@@ -2480,7 +2570,7 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="7" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B73" s="7">
         <v>0.79</v>
@@ -2596,7 +2686,7 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="7" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B78" s="14">
         <v>0.81</v>
@@ -2628,20 +2718,30 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
+      <c r="B79" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
+      <c r="G79" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="H79" s="7" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -2694,7 +2794,7 @@
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="15" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B84" s="15">
         <v>0.849</v>
@@ -2846,7 +2946,7 @@
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="17" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B95" s="18"/>
       <c r="C95" s="18"/>
@@ -2992,7 +3092,7 @@
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="19" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="B107" s="8">
         <v>80.8</v>
@@ -3066,7 +3166,7 @@
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="20" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B112" s="21">
         <v>76.7</v>
@@ -3152,7 +3252,7 @@
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="22" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B118" s="23">
         <v>78.5</v>

--- a/自己论文/对比实验数据.xlsx
+++ b/自己论文/对比实验数据.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="86">
   <si>
     <t>模型\数据集</t>
   </si>
@@ -79,6 +79,18 @@
     <t>0.605-0.060</t>
   </si>
   <si>
+    <t>0.863-0.015</t>
+  </si>
+  <si>
+    <t>2.030-0.420</t>
+  </si>
+  <si>
+    <t>0.853-0.060</t>
+  </si>
+  <si>
+    <t>0.650-0.030</t>
+  </si>
+  <si>
     <t>N-Gram-RF</t>
   </si>
   <si>
@@ -88,12 +100,60 @@
     <t>SchNet</t>
   </si>
   <si>
+    <t>0.750-0.033</t>
+  </si>
+  <si>
+    <t>0.847-0.024</t>
+  </si>
+  <si>
+    <t>0.717-0.042</t>
+  </si>
+  <si>
+    <t>0.767-0.025</t>
+  </si>
+  <si>
+    <t>0.545-0.038</t>
+  </si>
+  <si>
+    <t>3.215-0.755</t>
+  </si>
+  <si>
+    <t>1.045-0.064</t>
+  </si>
+  <si>
+    <t>0.909-0.098</t>
+  </si>
+  <si>
     <t>GIN</t>
   </si>
   <si>
     <t>MPNN</t>
   </si>
   <si>
+    <t>0.815-0.044</t>
+  </si>
+  <si>
+    <t>0.913-0.041</t>
+  </si>
+  <si>
+    <t>0.879-0.054</t>
+  </si>
+  <si>
+    <t>0.808-0.024</t>
+  </si>
+  <si>
+    <t>0.595-0.030</t>
+  </si>
+  <si>
+    <t>2.185-0.952</t>
+  </si>
+  <si>
+    <t>1.167-0.430</t>
+  </si>
+  <si>
+    <t>0.672-0.051</t>
+  </si>
+  <si>
     <t>DMPNN</t>
   </si>
   <si>
@@ -151,6 +211,21 @@
     <t>GraphMVP</t>
   </si>
   <si>
+    <t>0.812-0.009</t>
+  </si>
+  <si>
+    <t>0.724-0.016</t>
+  </si>
+  <si>
+    <t>0.791-0.028</t>
+  </si>
+  <si>
+    <t>0.759-0.005</t>
+  </si>
+  <si>
+    <t>0.639-0.012</t>
+  </si>
+  <si>
     <t>MolCLR</t>
   </si>
   <si>
@@ -191,6 +266,21 @@
   </si>
   <si>
     <t>MoleculeSTM</t>
+  </si>
+  <si>
+    <t>0.820-0.004</t>
+  </si>
+  <si>
+    <t>0.708-0.019</t>
+  </si>
+  <si>
+    <t>0.925-0.011</t>
+  </si>
+  <si>
+    <t>0.769-0.005</t>
+  </si>
+  <si>
+    <t>0.637-0.008</t>
   </si>
   <si>
     <t>MoMu</t>
@@ -1282,9 +1372,9 @@
   <dimension ref="A1:J122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1436,15 +1526,31 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3"/>
@@ -1472,7 +1578,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B9" s="4">
         <v>0.876</v>
@@ -1548,7 +1654,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13" s="4">
         <v>0.791</v>
@@ -1614,7 +1720,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17" s="5">
         <v>0.75</v>
@@ -1662,15 +1768,31 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="B19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="G19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="5"/>
@@ -1722,7 +1844,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="7" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B24" s="7">
         <v>0.845</v>
@@ -1846,7 +1968,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="8" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B32" s="8">
         <v>0.815</v>
@@ -1872,15 +1994,31 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
+      <c r="B33" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
+      <c r="G33" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="8"/>
@@ -1956,7 +2094,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="9" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B40" s="9">
         <v>0.852</v>
@@ -1977,13 +2115,13 @@
         <v>0.632</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2013,20 +2151,20 @@
     <row r="42" spans="1:10">
       <c r="A42" s="9"/>
       <c r="B42" s="9" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
@@ -2094,7 +2232,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="11" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B48" s="11">
         <v>0.869</v>
@@ -2147,29 +2285,29 @@
     <row r="50" spans="1:10">
       <c r="A50" s="11"/>
       <c r="B50" s="11" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="F50" s="11"/>
       <c r="G50" s="11" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2234,7 +2372,7 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="12" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B56" s="12">
         <v>0.812</v>
@@ -2382,15 +2520,29 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="12"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
+      <c r="B62" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>63</v>
+      </c>
       <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
+      <c r="G62" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
+      <c r="I62" s="12">
+        <v>1.029</v>
+      </c>
+      <c r="J62" s="12">
+        <v>0.681</v>
+      </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="12"/>
@@ -2406,7 +2558,7 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="13" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="B64" s="13">
         <v>0.788</v>
@@ -2570,7 +2722,7 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="7" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="B73" s="7">
         <v>0.79</v>
@@ -2686,7 +2838,7 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="7" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="B78" s="14">
         <v>0.81</v>
@@ -2719,29 +2871,29 @@
     <row r="79" spans="1:10">
       <c r="A79" s="7"/>
       <c r="B79" s="7" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="F79" s="7"/>
       <c r="G79" s="7" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -2794,7 +2946,7 @@
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="15" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="B84" s="15">
         <v>0.849</v>
@@ -2946,7 +3098,7 @@
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="17" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="B95" s="18"/>
       <c r="C95" s="18"/>
@@ -3092,7 +3244,7 @@
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="19" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="B107" s="8">
         <v>80.8</v>
@@ -3118,12 +3270,22 @@
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="19"/>
-      <c r="B108" s="8"/>
-      <c r="C108" s="8"/>
-      <c r="D108" s="8"/>
-      <c r="E108" s="8"/>
+      <c r="B108" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="F108" s="8"/>
-      <c r="G108" s="8"/>
+      <c r="G108" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="H108" s="8"/>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
@@ -3166,7 +3328,7 @@
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="20" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="B112" s="21">
         <v>76.7</v>
@@ -3252,7 +3414,7 @@
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="22" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="B118" s="23">
         <v>78.5</v>

--- a/自己论文/对比实验数据.xlsx
+++ b/自己论文/对比实验数据.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="109">
   <si>
     <t>模型\数据集</t>
   </si>
@@ -127,6 +127,27 @@
     <t>GIN</t>
   </si>
   <si>
+    <t>0.795-0.034</t>
+  </si>
+  <si>
+    <t>0.792-0.059</t>
+  </si>
+  <si>
+    <t>0.694-0.024</t>
+  </si>
+  <si>
+    <t>0.806-0.002</t>
+  </si>
+  <si>
+    <t>0.591-0.016</t>
+  </si>
+  <si>
+    <t>1.619-0.202</t>
+  </si>
+  <si>
+    <t>0.885-0.051</t>
+  </si>
+  <si>
     <t>MPNN</t>
   </si>
   <si>
@@ -283,10 +304,58 @@
     <t>0.637-0.008</t>
   </si>
   <si>
+    <t>0.7075-1.90</t>
+  </si>
+  <si>
+    <t>0.8660-2.28</t>
+  </si>
+  <si>
+    <t>0.7571-0.89</t>
+  </si>
+  <si>
+    <t>0.6517-0.37</t>
+  </si>
+  <si>
+    <t>0.6370-0.81</t>
+  </si>
+  <si>
     <t>MoMu</t>
   </si>
   <si>
+    <t>0.771-0.014</t>
+  </si>
+  <si>
+    <t>0.705-0.020</t>
+  </si>
+  <si>
+    <t>0.799-0.041</t>
+  </si>
+  <si>
+    <t>0.756-0.041</t>
+  </si>
+  <si>
+    <t>0.605-0.009</t>
+  </si>
+  <si>
     <t>KV-PLM</t>
+  </si>
+  <si>
+    <t>0.7850-2.73</t>
+  </si>
+  <si>
+    <t>0.7050-0.54</t>
+  </si>
+  <si>
+    <t>0.8917-2.73</t>
+  </si>
+  <si>
+    <t>0.7212-1.02</t>
+  </si>
+  <si>
+    <t>0.5503-1.65</t>
+  </si>
+  <si>
+    <t>0.5983-0.56</t>
   </si>
 </sst>
 </file>
@@ -1372,9 +1441,9 @@
   <dimension ref="A1:J122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1870,27 +1939,27 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="7"/>
-      <c r="B25" s="7">
-        <v>0.795</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0.792</v>
-      </c>
-      <c r="D25" s="7">
-        <v>0.694</v>
-      </c>
-      <c r="E25" s="7">
-        <v>0.806</v>
+      <c r="B25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="F25" s="7"/>
-      <c r="G25" s="7">
-        <v>0.591</v>
-      </c>
-      <c r="H25" s="7">
-        <v>1.619</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0.885</v>
+      <c r="G25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="J25" s="7"/>
     </row>
@@ -1968,7 +2037,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="8" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B32" s="8">
         <v>0.815</v>
@@ -1995,29 +2064,29 @@
     <row r="33" spans="1:10">
       <c r="A33" s="8"/>
       <c r="B33" s="8" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2094,7 +2163,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="9" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B40" s="9">
         <v>0.852</v>
@@ -2115,13 +2184,13 @@
         <v>0.632</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2151,20 +2220,20 @@
     <row r="42" spans="1:10">
       <c r="A42" s="9"/>
       <c r="B42" s="9" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
@@ -2232,7 +2301,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="11" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B48" s="11">
         <v>0.869</v>
@@ -2285,29 +2354,29 @@
     <row r="50" spans="1:10">
       <c r="A50" s="11"/>
       <c r="B50" s="11" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F50" s="11"/>
       <c r="G50" s="11" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2372,7 +2441,7 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="12" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B56" s="12">
         <v>0.812</v>
@@ -2521,20 +2590,20 @@
     <row r="62" spans="1:10">
       <c r="A62" s="12"/>
       <c r="B62" s="12" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F62" s="12"/>
       <c r="G62" s="12" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H62" s="12"/>
       <c r="I62" s="12">
@@ -2558,7 +2627,7 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="13" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B64" s="13">
         <v>0.788</v>
@@ -2722,7 +2791,7 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B73" s="7">
         <v>0.79</v>
@@ -2838,7 +2907,7 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B78" s="14">
         <v>0.81</v>
@@ -2871,29 +2940,29 @@
     <row r="79" spans="1:10">
       <c r="A79" s="7"/>
       <c r="B79" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F79" s="7"/>
       <c r="G79" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -2946,7 +3015,7 @@
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="15" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B84" s="15">
         <v>0.849</v>
@@ -3098,7 +3167,7 @@
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="17" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B95" s="18"/>
       <c r="C95" s="18"/>
@@ -3244,7 +3313,7 @@
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="19" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B107" s="8">
         <v>80.8</v>
@@ -3271,20 +3340,20 @@
     <row r="108" spans="1:10">
       <c r="A108" s="19"/>
       <c r="B108" s="8" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F108" s="8"/>
       <c r="G108" s="8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H108" s="8"/>
       <c r="I108" s="8"/>
@@ -3293,11 +3362,21 @@
     <row r="109" spans="1:10">
       <c r="A109" s="19"/>
       <c r="B109" s="8"/>
-      <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
-      <c r="E109" s="8"/>
-      <c r="F109" s="8"/>
-      <c r="G109" s="8"/>
+      <c r="C109" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G109" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="H109" s="8"/>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
@@ -3328,7 +3407,7 @@
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="20" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B112" s="21">
         <v>76.7</v>
@@ -3354,12 +3433,22 @@
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="20"/>
-      <c r="B113" s="21"/>
-      <c r="C113" s="21"/>
-      <c r="D113" s="21"/>
-      <c r="E113" s="21"/>
+      <c r="B113" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C113" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D113" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E113" s="21" t="s">
+        <v>100</v>
+      </c>
       <c r="F113" s="21"/>
-      <c r="G113" s="21"/>
+      <c r="G113" s="21" t="s">
+        <v>101</v>
+      </c>
       <c r="H113" s="21"/>
       <c r="I113" s="21"/>
       <c r="J113" s="21"/>
@@ -3414,7 +3503,7 @@
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="22" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="B118" s="23">
         <v>78.5</v>
@@ -3440,12 +3529,24 @@
     </row>
     <row r="119" spans="1:10">
       <c r="A119" s="22"/>
-      <c r="B119" s="23"/>
-      <c r="C119" s="23"/>
-      <c r="D119" s="23"/>
-      <c r="E119" s="23"/>
-      <c r="F119" s="23"/>
-      <c r="G119" s="23"/>
+      <c r="B119" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C119" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D119" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="E119" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="F119" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="G119" s="23" t="s">
+        <v>108</v>
+      </c>
       <c r="H119" s="23"/>
       <c r="I119" s="23"/>
       <c r="J119" s="23"/>

--- a/自己论文/对比实验数据.xlsx
+++ b/自己论文/对比实验数据.xlsx
@@ -1441,9 +1441,11 @@
   <dimension ref="A1:J122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D108" activePane="bottomRight" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D98" sqref="D98"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="H109" sqref="H109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
